--- a/files google scholar/Data_merged.xlsx
+++ b/files google scholar/Data_merged.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="2757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="2755">
   <si>
     <t xml:space="preserve">AU</t>
   </si>
@@ -7088,9 +7088,6 @@
     <t xml:space="preserve">HTTP://WWW.CS.CMU.EDU/AFS/CS.CMU.EDU/WEB/PEOPLE/CBENNETT/SYRG/SYRG_02-12-04.PDF</t>
   </si>
   <si>
-    <t xml:space="preserve">DIC FIIGEN;T SCHAAF;T SCHULTZ;JB MARINO</t>
-  </si>
-  <si>
     <t xml:space="preserve">NINTH ANNUAL CONFERENCE OF THE INTERNATIONAL …</t>
   </si>
   <si>
@@ -8130,9 +8127,6 @@
   </si>
   <si>
     <t xml:space="preserve">VORLESUNG SS 2013 MULTILINGUALE MENSCH-MASCHINE KOMMUNIKATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B SUHM;P GEUTNER;T KEMP;I ROGINA;T SCHULTZ…</t>
   </si>
   <si>
     <t xml:space="preserve">T SCHULTZ;C AMMA;D HEGER…</t>
@@ -26622,13 +26616,13 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>2358</v>
+        <v>547</v>
       </c>
       <c r="B581" t="s">
-        <v>15</v>
+        <v>2104</v>
       </c>
       <c r="C581" t="s">
-        <v>1220</v>
+        <v>15</v>
       </c>
       <c r="D581"/>
       <c r="E581"/>
@@ -26636,28 +26630,28 @@
         <v>288</v>
       </c>
       <c r="G581" t="s">
-        <v>15</v>
+        <v>426</v>
       </c>
       <c r="H581" t="s">
-        <v>15</v>
+        <v>2358</v>
       </c>
       <c r="I581" t="s">
-        <v>2341</v>
+        <v>2359</v>
       </c>
       <c r="J581" t="s">
-        <v>15</v>
+        <v>2360</v>
       </c>
       <c r="K581"/>
       <c r="L581" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>547</v>
+        <v>2361</v>
       </c>
       <c r="B582" t="s">
-        <v>2104</v>
+        <v>2362</v>
       </c>
       <c r="C582" t="s">
         <v>15</v>
@@ -26668,31 +26662,31 @@
         <v>288</v>
       </c>
       <c r="G582" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="H582" t="s">
-        <v>2359</v>
+        <v>2363</v>
       </c>
       <c r="I582" t="s">
-        <v>2360</v>
+        <v>2364</v>
       </c>
       <c r="J582" t="s">
-        <v>2361</v>
+        <v>2365</v>
       </c>
       <c r="K582"/>
       <c r="L582" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>2362</v>
+        <v>423</v>
       </c>
       <c r="B583" t="s">
-        <v>2363</v>
+        <v>15</v>
       </c>
       <c r="C583" t="s">
-        <v>15</v>
+        <v>1220</v>
       </c>
       <c r="D583"/>
       <c r="E583"/>
@@ -26700,25 +26694,25 @@
         <v>288</v>
       </c>
       <c r="G583" t="s">
-        <v>434</v>
+        <v>15</v>
       </c>
       <c r="H583" t="s">
-        <v>2364</v>
+        <v>2366</v>
       </c>
       <c r="I583" t="s">
-        <v>2365</v>
+        <v>2367</v>
       </c>
       <c r="J583" t="s">
-        <v>2366</v>
+        <v>15</v>
       </c>
       <c r="K583"/>
       <c r="L583" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>423</v>
+        <v>2368</v>
       </c>
       <c r="B584" t="s">
         <v>15</v>
@@ -26735,28 +26729,26 @@
         <v>15</v>
       </c>
       <c r="H584" t="s">
-        <v>2367</v>
+        <v>15</v>
       </c>
       <c r="I584" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="J584" t="s">
         <v>15</v>
       </c>
       <c r="K584"/>
-      <c r="L584" t="s">
-        <v>73</v>
-      </c>
+      <c r="L584"/>
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="B585" t="s">
-        <v>15</v>
+        <v>2371</v>
       </c>
       <c r="C585" t="s">
-        <v>1220</v>
+        <v>15</v>
       </c>
       <c r="D585"/>
       <c r="E585"/>
@@ -26764,26 +26756,28 @@
         <v>288</v>
       </c>
       <c r="G585" t="s">
-        <v>15</v>
+        <v>448</v>
       </c>
       <c r="H585" t="s">
-        <v>15</v>
+        <v>914</v>
       </c>
       <c r="I585" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
       <c r="J585" t="s">
-        <v>15</v>
+        <v>2373</v>
       </c>
       <c r="K585"/>
-      <c r="L585"/>
+      <c r="L585" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>2371</v>
+        <v>1173</v>
       </c>
       <c r="B586" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="C586" t="s">
         <v>15</v>
@@ -26794,31 +26788,31 @@
         <v>288</v>
       </c>
       <c r="G586" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="H586" t="s">
-        <v>914</v>
+        <v>2375</v>
       </c>
       <c r="I586" t="s">
-        <v>2373</v>
+        <v>2376</v>
       </c>
       <c r="J586" t="s">
-        <v>2374</v>
+        <v>2377</v>
       </c>
       <c r="K586"/>
       <c r="L586" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>1173</v>
+        <v>2368</v>
       </c>
       <c r="B587" t="s">
-        <v>2375</v>
+        <v>15</v>
       </c>
       <c r="C587" t="s">
-        <v>15</v>
+        <v>1220</v>
       </c>
       <c r="D587"/>
       <c r="E587"/>
@@ -26826,25 +26820,25 @@
         <v>288</v>
       </c>
       <c r="G587" t="s">
-        <v>503</v>
+        <v>15</v>
       </c>
       <c r="H587" t="s">
-        <v>2376</v>
+        <v>15</v>
       </c>
       <c r="I587" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="J587" t="s">
-        <v>2378</v>
+        <v>15</v>
       </c>
       <c r="K587"/>
       <c r="L587" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>2369</v>
+        <v>423</v>
       </c>
       <c r="B588" t="s">
         <v>15</v>
@@ -26870,66 +26864,66 @@
         <v>15</v>
       </c>
       <c r="K588"/>
-      <c r="L588" t="s">
-        <v>89</v>
-      </c>
+      <c r="L588"/>
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>423</v>
+        <v>2380</v>
       </c>
       <c r="B589" t="s">
-        <v>15</v>
+        <v>2381</v>
       </c>
       <c r="C589" t="s">
-        <v>1220</v>
+        <v>15</v>
       </c>
       <c r="D589"/>
       <c r="E589"/>
       <c r="F589" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="G589" t="s">
-        <v>15</v>
+        <v>324</v>
       </c>
       <c r="H589" t="s">
-        <v>15</v>
+        <v>1544</v>
       </c>
       <c r="I589" t="s">
-        <v>2380</v>
+        <v>2364</v>
       </c>
       <c r="J589" t="s">
-        <v>15</v>
+        <v>2382</v>
       </c>
       <c r="K589"/>
-      <c r="L589"/>
+      <c r="L589" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>2381</v>
+        <v>2383</v>
       </c>
       <c r="B590" t="s">
-        <v>2382</v>
+        <v>2384</v>
       </c>
       <c r="C590" t="s">
-        <v>15</v>
+        <v>577</v>
       </c>
       <c r="D590"/>
       <c r="E590"/>
       <c r="F590" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="G590" t="s">
-        <v>324</v>
+        <v>924</v>
       </c>
       <c r="H590" t="s">
-        <v>1544</v>
+        <v>2385</v>
       </c>
       <c r="I590" t="s">
-        <v>2365</v>
+        <v>2386</v>
       </c>
       <c r="J590" t="s">
-        <v>2383</v>
+        <v>2387</v>
       </c>
       <c r="K590"/>
       <c r="L590" t="s">
@@ -26938,13 +26932,13 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>2384</v>
+        <v>2388</v>
       </c>
       <c r="B591" t="s">
-        <v>2385</v>
+        <v>2389</v>
       </c>
       <c r="C591" t="s">
-        <v>577</v>
+        <v>15</v>
       </c>
       <c r="D591"/>
       <c r="E591"/>
@@ -26952,31 +26946,29 @@
         <v>288</v>
       </c>
       <c r="G591" t="s">
-        <v>924</v>
+        <v>15</v>
       </c>
       <c r="H591" t="s">
-        <v>2386</v>
+        <v>710</v>
       </c>
       <c r="I591" t="s">
-        <v>2387</v>
+        <v>2390</v>
       </c>
       <c r="J591" t="s">
-        <v>2388</v>
+        <v>2391</v>
       </c>
       <c r="K591"/>
-      <c r="L591" t="s">
-        <v>89</v>
-      </c>
+      <c r="L591"/>
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>2389</v>
+        <v>1997</v>
       </c>
       <c r="B592" t="s">
-        <v>2390</v>
+        <v>15</v>
       </c>
       <c r="C592" t="s">
-        <v>15</v>
+        <v>1220</v>
       </c>
       <c r="D592"/>
       <c r="E592"/>
@@ -26987,26 +26979,28 @@
         <v>15</v>
       </c>
       <c r="H592" t="s">
-        <v>710</v>
+        <v>2392</v>
       </c>
       <c r="I592" t="s">
-        <v>2391</v>
+        <v>2393</v>
       </c>
       <c r="J592" t="s">
-        <v>2392</v>
+        <v>15</v>
       </c>
       <c r="K592"/>
-      <c r="L592"/>
+      <c r="L592" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>1997</v>
+        <v>2394</v>
       </c>
       <c r="B593" t="s">
-        <v>15</v>
+        <v>2395</v>
       </c>
       <c r="C593" t="s">
-        <v>1220</v>
+        <v>577</v>
       </c>
       <c r="D593"/>
       <c r="E593"/>
@@ -27017,25 +27011,23 @@
         <v>15</v>
       </c>
       <c r="H593" t="s">
-        <v>2393</v>
+        <v>710</v>
       </c>
       <c r="I593" t="s">
-        <v>2394</v>
+        <v>938</v>
       </c>
       <c r="J593" t="s">
-        <v>15</v>
+        <v>2396</v>
       </c>
       <c r="K593"/>
-      <c r="L593" t="s">
-        <v>57</v>
-      </c>
+      <c r="L593"/>
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
       <c r="B594" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
       <c r="C594" t="s">
         <v>577</v>
@@ -27052,20 +27044,20 @@
         <v>710</v>
       </c>
       <c r="I594" t="s">
-        <v>938</v>
+        <v>2399</v>
       </c>
       <c r="J594" t="s">
-        <v>2397</v>
+        <v>2400</v>
       </c>
       <c r="K594"/>
       <c r="L594"/>
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>2398</v>
+        <v>2401</v>
       </c>
       <c r="B595" t="s">
-        <v>2399</v>
+        <v>2402</v>
       </c>
       <c r="C595" t="s">
         <v>577</v>
@@ -27076,29 +27068,31 @@
         <v>288</v>
       </c>
       <c r="G595" t="s">
-        <v>15</v>
+        <v>657</v>
       </c>
       <c r="H595" t="s">
-        <v>710</v>
+        <v>2403</v>
       </c>
       <c r="I595" t="s">
-        <v>2400</v>
+        <v>2404</v>
       </c>
       <c r="J595" t="s">
-        <v>2401</v>
+        <v>2405</v>
       </c>
       <c r="K595"/>
-      <c r="L595"/>
+      <c r="L595" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>2402</v>
+        <v>2406</v>
       </c>
       <c r="B596" t="s">
-        <v>2403</v>
+        <v>15</v>
       </c>
       <c r="C596" t="s">
-        <v>577</v>
+        <v>1220</v>
       </c>
       <c r="D596"/>
       <c r="E596"/>
@@ -27106,31 +27100,29 @@
         <v>288</v>
       </c>
       <c r="G596" t="s">
-        <v>657</v>
+        <v>15</v>
       </c>
       <c r="H596" t="s">
-        <v>2404</v>
+        <v>15</v>
       </c>
       <c r="I596" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="J596" t="s">
-        <v>2406</v>
+        <v>15</v>
       </c>
       <c r="K596"/>
-      <c r="L596" t="s">
-        <v>94</v>
-      </c>
+      <c r="L596"/>
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="B597" t="s">
-        <v>15</v>
+        <v>2409</v>
       </c>
       <c r="C597" t="s">
-        <v>1220</v>
+        <v>15</v>
       </c>
       <c r="D597"/>
       <c r="E597"/>
@@ -27138,29 +27130,31 @@
         <v>288</v>
       </c>
       <c r="G597" t="s">
-        <v>15</v>
+        <v>2410</v>
       </c>
       <c r="H597" t="s">
         <v>15</v>
       </c>
       <c r="I597" t="s">
-        <v>2408</v>
+        <v>2411</v>
       </c>
       <c r="J597" t="s">
-        <v>15</v>
+        <v>2412</v>
       </c>
       <c r="K597"/>
-      <c r="L597"/>
+      <c r="L597" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>2409</v>
+        <v>2413</v>
       </c>
       <c r="B598" t="s">
-        <v>2410</v>
+        <v>2414</v>
       </c>
       <c r="C598" t="s">
-        <v>15</v>
+        <v>1220</v>
       </c>
       <c r="D598"/>
       <c r="E598"/>
@@ -27168,16 +27162,16 @@
         <v>288</v>
       </c>
       <c r="G598" t="s">
-        <v>2411</v>
+        <v>2415</v>
       </c>
       <c r="H598" t="s">
         <v>15</v>
       </c>
       <c r="I598" t="s">
-        <v>2412</v>
+        <v>2416</v>
       </c>
       <c r="J598" t="s">
-        <v>2413</v>
+        <v>2417</v>
       </c>
       <c r="K598"/>
       <c r="L598" t="s">
@@ -27186,10 +27180,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>2414</v>
+        <v>1997</v>
       </c>
       <c r="B599" t="s">
-        <v>2415</v>
+        <v>15</v>
       </c>
       <c r="C599" t="s">
         <v>1220</v>
@@ -27200,25 +27194,25 @@
         <v>288</v>
       </c>
       <c r="G599" t="s">
-        <v>2416</v>
+        <v>15</v>
       </c>
       <c r="H599" t="s">
         <v>15</v>
       </c>
       <c r="I599" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="J599" t="s">
-        <v>2418</v>
+        <v>15</v>
       </c>
       <c r="K599"/>
       <c r="L599" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>1997</v>
+        <v>2419</v>
       </c>
       <c r="B600" t="s">
         <v>15</v>
@@ -27232,31 +27226,31 @@
         <v>288</v>
       </c>
       <c r="G600" t="s">
-        <v>15</v>
+        <v>579</v>
       </c>
       <c r="H600" t="s">
-        <v>15</v>
+        <v>2311</v>
       </c>
       <c r="I600" t="s">
-        <v>2419</v>
+        <v>2249</v>
       </c>
       <c r="J600" t="s">
-        <v>15</v>
+        <v>2420</v>
       </c>
       <c r="K600"/>
       <c r="L600" t="s">
-        <v>89</v>
+        <v>512</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="B601" t="s">
-        <v>15</v>
+        <v>2422</v>
       </c>
       <c r="C601" t="s">
-        <v>1220</v>
+        <v>577</v>
       </c>
       <c r="D601"/>
       <c r="E601"/>
@@ -27264,31 +27258,29 @@
         <v>288</v>
       </c>
       <c r="G601" t="s">
-        <v>579</v>
+        <v>15</v>
       </c>
       <c r="H601" t="s">
-        <v>2311</v>
+        <v>2423</v>
       </c>
       <c r="I601" t="s">
-        <v>2249</v>
+        <v>2424</v>
       </c>
       <c r="J601" t="s">
-        <v>2421</v>
+        <v>2425</v>
       </c>
       <c r="K601"/>
-      <c r="L601" t="s">
-        <v>512</v>
-      </c>
+      <c r="L601"/>
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>2422</v>
+        <v>423</v>
       </c>
       <c r="B602" t="s">
-        <v>2423</v>
+        <v>15</v>
       </c>
       <c r="C602" t="s">
-        <v>577</v>
+        <v>1220</v>
       </c>
       <c r="D602"/>
       <c r="E602"/>
@@ -27299,20 +27291,22 @@
         <v>15</v>
       </c>
       <c r="H602" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="I602" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="J602" t="s">
-        <v>2426</v>
+        <v>15</v>
       </c>
       <c r="K602"/>
-      <c r="L602"/>
+      <c r="L602" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>423</v>
+        <v>1997</v>
       </c>
       <c r="B603" t="s">
         <v>15</v>
@@ -27329,7 +27323,7 @@
         <v>15</v>
       </c>
       <c r="H603" t="s">
-        <v>2427</v>
+        <v>15</v>
       </c>
       <c r="I603" t="s">
         <v>2428</v>
@@ -27339,18 +27333,18 @@
       </c>
       <c r="K603"/>
       <c r="L603" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>1997</v>
+        <v>2429</v>
       </c>
       <c r="B604" t="s">
-        <v>15</v>
+        <v>2430</v>
       </c>
       <c r="C604" t="s">
-        <v>1220</v>
+        <v>577</v>
       </c>
       <c r="D604"/>
       <c r="E604"/>
@@ -27358,31 +27352,31 @@
         <v>288</v>
       </c>
       <c r="G604" t="s">
-        <v>15</v>
+        <v>657</v>
       </c>
       <c r="H604" t="s">
-        <v>15</v>
+        <v>2431</v>
       </c>
       <c r="I604" t="s">
-        <v>2429</v>
+        <v>2432</v>
       </c>
       <c r="J604" t="s">
-        <v>15</v>
+        <v>2433</v>
       </c>
       <c r="K604"/>
       <c r="L604" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>2430</v>
+        <v>2434</v>
       </c>
       <c r="B605" t="s">
-        <v>2431</v>
+        <v>15</v>
       </c>
       <c r="C605" t="s">
-        <v>577</v>
+        <v>1220</v>
       </c>
       <c r="D605"/>
       <c r="E605"/>
@@ -27390,31 +27384,29 @@
         <v>288</v>
       </c>
       <c r="G605" t="s">
-        <v>657</v>
+        <v>15</v>
       </c>
       <c r="H605" t="s">
-        <v>2432</v>
+        <v>15</v>
       </c>
       <c r="I605" t="s">
-        <v>2433</v>
+        <v>2435</v>
       </c>
       <c r="J605" t="s">
-        <v>2434</v>
+        <v>15</v>
       </c>
       <c r="K605"/>
-      <c r="L605" t="s">
-        <v>25</v>
-      </c>
+      <c r="L605"/>
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>2435</v>
+        <v>1151</v>
       </c>
       <c r="B606" t="s">
-        <v>15</v>
+        <v>2436</v>
       </c>
       <c r="C606" t="s">
-        <v>1220</v>
+        <v>577</v>
       </c>
       <c r="D606"/>
       <c r="E606"/>
@@ -27425,26 +27417,26 @@
         <v>15</v>
       </c>
       <c r="H606" t="s">
-        <v>15</v>
+        <v>924</v>
       </c>
       <c r="I606" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="J606" t="s">
-        <v>15</v>
+        <v>2438</v>
       </c>
       <c r="K606"/>
       <c r="L606"/>
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>1151</v>
+        <v>2439</v>
       </c>
       <c r="B607" t="s">
-        <v>2437</v>
+        <v>15</v>
       </c>
       <c r="C607" t="s">
-        <v>577</v>
+        <v>1220</v>
       </c>
       <c r="D607"/>
       <c r="E607"/>
@@ -27455,20 +27447,20 @@
         <v>15</v>
       </c>
       <c r="H607" t="s">
-        <v>924</v>
+        <v>15</v>
       </c>
       <c r="I607" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
       <c r="J607" t="s">
-        <v>2439</v>
+        <v>15</v>
       </c>
       <c r="K607"/>
       <c r="L607"/>
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="B608" t="s">
         <v>15</v>
@@ -27488,7 +27480,7 @@
         <v>15</v>
       </c>
       <c r="I608" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="J608" t="s">
         <v>15</v>
@@ -27498,13 +27490,13 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="B609" t="s">
-        <v>15</v>
+        <v>2444</v>
       </c>
       <c r="C609" t="s">
-        <v>1220</v>
+        <v>577</v>
       </c>
       <c r="D609"/>
       <c r="E609"/>
@@ -27515,26 +27507,26 @@
         <v>15</v>
       </c>
       <c r="H609" t="s">
-        <v>15</v>
+        <v>693</v>
       </c>
       <c r="I609" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="J609" t="s">
-        <v>15</v>
+        <v>2446</v>
       </c>
       <c r="K609"/>
       <c r="L609"/>
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>2444</v>
+        <v>2447</v>
       </c>
       <c r="B610" t="s">
-        <v>2445</v>
+        <v>800</v>
       </c>
       <c r="C610" t="s">
-        <v>577</v>
+        <v>15</v>
       </c>
       <c r="D610"/>
       <c r="E610"/>
@@ -27542,29 +27534,31 @@
         <v>288</v>
       </c>
       <c r="G610" t="s">
-        <v>15</v>
+        <v>2351</v>
       </c>
       <c r="H610" t="s">
-        <v>693</v>
+        <v>15</v>
       </c>
       <c r="I610" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="J610" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="K610"/>
-      <c r="L610"/>
+      <c r="L610" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>2448</v>
+        <v>2439</v>
       </c>
       <c r="B611" t="s">
-        <v>800</v>
+        <v>15</v>
       </c>
       <c r="C611" t="s">
-        <v>15</v>
+        <v>1220</v>
       </c>
       <c r="D611"/>
       <c r="E611"/>
@@ -27572,25 +27566,25 @@
         <v>288</v>
       </c>
       <c r="G611" t="s">
-        <v>2351</v>
+        <v>2450</v>
       </c>
       <c r="H611" t="s">
         <v>15</v>
       </c>
       <c r="I611" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="J611" t="s">
-        <v>2450</v>
+        <v>15</v>
       </c>
       <c r="K611"/>
       <c r="L611" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>2440</v>
+        <v>2368</v>
       </c>
       <c r="B612" t="s">
         <v>15</v>
@@ -27604,7 +27598,7 @@
         <v>288</v>
       </c>
       <c r="G612" t="s">
-        <v>2451</v>
+        <v>15</v>
       </c>
       <c r="H612" t="s">
         <v>15</v>
@@ -27617,12 +27611,12 @@
       </c>
       <c r="K612"/>
       <c r="L612" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>2369</v>
+        <v>2453</v>
       </c>
       <c r="B613" t="s">
         <v>15</v>
@@ -27639,28 +27633,28 @@
         <v>15</v>
       </c>
       <c r="H613" t="s">
-        <v>15</v>
+        <v>2454</v>
       </c>
       <c r="I613" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="J613" t="s">
         <v>15</v>
       </c>
       <c r="K613"/>
       <c r="L613" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>2454</v>
+        <v>610</v>
       </c>
       <c r="B614" t="s">
-        <v>15</v>
+        <v>2456</v>
       </c>
       <c r="C614" t="s">
-        <v>1220</v>
+        <v>577</v>
       </c>
       <c r="D614"/>
       <c r="E614"/>
@@ -27668,31 +27662,29 @@
         <v>288</v>
       </c>
       <c r="G614" t="s">
-        <v>15</v>
+        <v>693</v>
       </c>
       <c r="H614" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="I614" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="J614" t="s">
-        <v>15</v>
+        <v>2459</v>
       </c>
       <c r="K614"/>
-      <c r="L614" t="s">
-        <v>94</v>
-      </c>
+      <c r="L614"/>
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>610</v>
+        <v>418</v>
       </c>
       <c r="B615" t="s">
-        <v>2457</v>
+        <v>2460</v>
       </c>
       <c r="C615" t="s">
-        <v>577</v>
+        <v>1220</v>
       </c>
       <c r="D615"/>
       <c r="E615"/>
@@ -27700,29 +27692,31 @@
         <v>288</v>
       </c>
       <c r="G615" t="s">
-        <v>693</v>
+        <v>2410</v>
       </c>
       <c r="H615" t="s">
-        <v>2458</v>
+        <v>15</v>
       </c>
       <c r="I615" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="J615" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="K615"/>
-      <c r="L615"/>
+      <c r="L615" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>418</v>
+        <v>739</v>
       </c>
       <c r="B616" t="s">
-        <v>2461</v>
+        <v>740</v>
       </c>
       <c r="C616" t="s">
-        <v>1220</v>
+        <v>577</v>
       </c>
       <c r="D616"/>
       <c r="E616"/>
@@ -27730,31 +27724,29 @@
         <v>288</v>
       </c>
       <c r="G616" t="s">
-        <v>2411</v>
+        <v>15</v>
       </c>
       <c r="H616" t="s">
-        <v>15</v>
+        <v>936</v>
       </c>
       <c r="I616" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="J616" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="K616"/>
-      <c r="L616" t="s">
-        <v>157</v>
-      </c>
+      <c r="L616"/>
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>739</v>
+        <v>2465</v>
       </c>
       <c r="B617" t="s">
-        <v>740</v>
+        <v>2466</v>
       </c>
       <c r="C617" t="s">
-        <v>577</v>
+        <v>2467</v>
       </c>
       <c r="D617"/>
       <c r="E617"/>
@@ -27765,26 +27757,26 @@
         <v>15</v>
       </c>
       <c r="H617" t="s">
-        <v>936</v>
+        <v>2468</v>
       </c>
       <c r="I617" t="s">
-        <v>2464</v>
+        <v>2469</v>
       </c>
       <c r="J617" t="s">
-        <v>2465</v>
+        <v>2470</v>
       </c>
       <c r="K617"/>
       <c r="L617"/>
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>2466</v>
+        <v>2439</v>
       </c>
       <c r="B618" t="s">
-        <v>2467</v>
+        <v>15</v>
       </c>
       <c r="C618" t="s">
-        <v>2468</v>
+        <v>1220</v>
       </c>
       <c r="D618"/>
       <c r="E618"/>
@@ -27792,29 +27784,31 @@
         <v>288</v>
       </c>
       <c r="G618" t="s">
-        <v>15</v>
+        <v>2471</v>
       </c>
       <c r="H618" t="s">
-        <v>2469</v>
+        <v>15</v>
       </c>
       <c r="I618" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="J618" t="s">
-        <v>2471</v>
+        <v>15</v>
       </c>
       <c r="K618"/>
-      <c r="L618"/>
+      <c r="L618" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>2440</v>
+        <v>2215</v>
       </c>
       <c r="B619" t="s">
-        <v>15</v>
+        <v>2473</v>
       </c>
       <c r="C619" t="s">
-        <v>1220</v>
+        <v>577</v>
       </c>
       <c r="D619"/>
       <c r="E619"/>
@@ -27822,31 +27816,29 @@
         <v>288</v>
       </c>
       <c r="G619" t="s">
-        <v>2472</v>
+        <v>15</v>
       </c>
       <c r="H619" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="I619" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="J619" t="s">
-        <v>15</v>
+        <v>2475</v>
       </c>
       <c r="K619"/>
-      <c r="L619" t="s">
-        <v>19</v>
-      </c>
+      <c r="L619"/>
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>2215</v>
+        <v>2476</v>
       </c>
       <c r="B620" t="s">
-        <v>2474</v>
+        <v>2477</v>
       </c>
       <c r="C620" t="s">
-        <v>577</v>
+        <v>15</v>
       </c>
       <c r="D620"/>
       <c r="E620"/>
@@ -27854,29 +27846,31 @@
         <v>288</v>
       </c>
       <c r="G620" t="s">
-        <v>15</v>
+        <v>2478</v>
       </c>
       <c r="H620" t="s">
-        <v>1029</v>
+        <v>2479</v>
       </c>
       <c r="I620" t="s">
-        <v>2475</v>
+        <v>2480</v>
       </c>
       <c r="J620" t="s">
-        <v>2476</v>
+        <v>2481</v>
       </c>
       <c r="K620"/>
-      <c r="L620"/>
+      <c r="L620" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>2477</v>
+        <v>2482</v>
       </c>
       <c r="B621" t="s">
-        <v>2478</v>
+        <v>2460</v>
       </c>
       <c r="C621" t="s">
-        <v>15</v>
+        <v>1220</v>
       </c>
       <c r="D621"/>
       <c r="E621"/>
@@ -27884,28 +27878,28 @@
         <v>288</v>
       </c>
       <c r="G621" t="s">
-        <v>2479</v>
+        <v>2410</v>
       </c>
       <c r="H621" t="s">
-        <v>2480</v>
+        <v>15</v>
       </c>
       <c r="I621" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="J621" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="K621"/>
       <c r="L621" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="B622" t="s">
-        <v>2461</v>
+        <v>2486</v>
       </c>
       <c r="C622" t="s">
         <v>1220</v>
@@ -27916,31 +27910,31 @@
         <v>288</v>
       </c>
       <c r="G622" t="s">
-        <v>2411</v>
+        <v>2487</v>
       </c>
       <c r="H622" t="s">
         <v>15</v>
       </c>
       <c r="I622" t="s">
-        <v>2484</v>
+        <v>2488</v>
       </c>
       <c r="J622" t="s">
-        <v>2485</v>
+        <v>2489</v>
       </c>
       <c r="K622"/>
       <c r="L622" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>2486</v>
+        <v>2490</v>
       </c>
       <c r="B623" t="s">
-        <v>2487</v>
+        <v>2491</v>
       </c>
       <c r="C623" t="s">
-        <v>1220</v>
+        <v>15</v>
       </c>
       <c r="D623"/>
       <c r="E623"/>
@@ -27948,31 +27942,31 @@
         <v>288</v>
       </c>
       <c r="G623" t="s">
-        <v>2488</v>
+        <v>426</v>
       </c>
       <c r="H623" t="s">
-        <v>15</v>
+        <v>1216</v>
       </c>
       <c r="I623" t="s">
-        <v>2489</v>
+        <v>2492</v>
       </c>
       <c r="J623" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="K623"/>
       <c r="L623" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>2491</v>
+        <v>2494</v>
       </c>
       <c r="B624" t="s">
-        <v>2492</v>
+        <v>15</v>
       </c>
       <c r="C624" t="s">
-        <v>15</v>
+        <v>1220</v>
       </c>
       <c r="D624"/>
       <c r="E624"/>
@@ -27980,31 +27974,31 @@
         <v>288</v>
       </c>
       <c r="G624" t="s">
-        <v>426</v>
+        <v>579</v>
       </c>
       <c r="H624" t="s">
-        <v>1216</v>
+        <v>2311</v>
       </c>
       <c r="I624" t="s">
-        <v>2493</v>
+        <v>2249</v>
       </c>
       <c r="J624" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="K624"/>
       <c r="L624" t="s">
-        <v>157</v>
+        <v>469</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>2495</v>
+        <v>1583</v>
       </c>
       <c r="B625" t="s">
-        <v>15</v>
+        <v>2496</v>
       </c>
       <c r="C625" t="s">
-        <v>1220</v>
+        <v>15</v>
       </c>
       <c r="D625"/>
       <c r="E625"/>
@@ -28012,31 +28006,31 @@
         <v>288</v>
       </c>
       <c r="G625" t="s">
-        <v>579</v>
+        <v>448</v>
       </c>
       <c r="H625" t="s">
-        <v>2311</v>
+        <v>2497</v>
       </c>
       <c r="I625" t="s">
-        <v>2249</v>
+        <v>2498</v>
       </c>
       <c r="J625" t="s">
-        <v>2496</v>
+        <v>2499</v>
       </c>
       <c r="K625"/>
       <c r="L625" t="s">
-        <v>469</v>
+        <v>57</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>1583</v>
+        <v>423</v>
       </c>
       <c r="B626" t="s">
-        <v>2497</v>
+        <v>15</v>
       </c>
       <c r="C626" t="s">
-        <v>15</v>
+        <v>1220</v>
       </c>
       <c r="D626"/>
       <c r="E626"/>
@@ -28044,25 +28038,25 @@
         <v>288</v>
       </c>
       <c r="G626" t="s">
-        <v>448</v>
+        <v>15</v>
       </c>
       <c r="H626" t="s">
-        <v>2498</v>
+        <v>1948</v>
       </c>
       <c r="I626" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="J626" t="s">
-        <v>2500</v>
+        <v>15</v>
       </c>
       <c r="K626"/>
       <c r="L626" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>423</v>
+        <v>2501</v>
       </c>
       <c r="B627" t="s">
         <v>15</v>
@@ -28076,31 +28070,31 @@
         <v>288</v>
       </c>
       <c r="G627" t="s">
-        <v>15</v>
+        <v>579</v>
       </c>
       <c r="H627" t="s">
-        <v>1948</v>
+        <v>2311</v>
       </c>
       <c r="I627" t="s">
-        <v>2501</v>
+        <v>2249</v>
       </c>
       <c r="J627" t="s">
-        <v>15</v>
+        <v>2502</v>
       </c>
       <c r="K627"/>
       <c r="L627" t="s">
-        <v>30</v>
+        <v>512</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>2502</v>
+        <v>423</v>
       </c>
       <c r="B628" t="s">
-        <v>15</v>
+        <v>2503</v>
       </c>
       <c r="C628" t="s">
-        <v>1220</v>
+        <v>577</v>
       </c>
       <c r="D628"/>
       <c r="E628"/>
@@ -28108,31 +28102,29 @@
         <v>288</v>
       </c>
       <c r="G628" t="s">
-        <v>579</v>
+        <v>1029</v>
       </c>
       <c r="H628" t="s">
-        <v>2311</v>
+        <v>2504</v>
       </c>
       <c r="I628" t="s">
-        <v>2249</v>
+        <v>2505</v>
       </c>
       <c r="J628" t="s">
-        <v>2503</v>
+        <v>2506</v>
       </c>
       <c r="K628"/>
-      <c r="L628" t="s">
-        <v>512</v>
-      </c>
+      <c r="L628"/>
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>423</v>
+        <v>2507</v>
       </c>
       <c r="B629" t="s">
-        <v>2504</v>
+        <v>15</v>
       </c>
       <c r="C629" t="s">
-        <v>577</v>
+        <v>1220</v>
       </c>
       <c r="D629"/>
       <c r="E629"/>
@@ -28140,29 +28132,31 @@
         <v>288</v>
       </c>
       <c r="G629" t="s">
-        <v>1029</v>
+        <v>579</v>
       </c>
       <c r="H629" t="s">
-        <v>2505</v>
+        <v>2311</v>
       </c>
       <c r="I629" t="s">
-        <v>2506</v>
+        <v>2249</v>
       </c>
       <c r="J629" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="K629"/>
-      <c r="L629"/>
+      <c r="L629" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="B630" t="s">
-        <v>15</v>
+        <v>2510</v>
       </c>
       <c r="C630" t="s">
-        <v>1220</v>
+        <v>577</v>
       </c>
       <c r="D630"/>
       <c r="E630"/>
@@ -28170,28 +28164,26 @@
         <v>288</v>
       </c>
       <c r="G630" t="s">
-        <v>579</v>
+        <v>15</v>
       </c>
       <c r="H630" t="s">
-        <v>2311</v>
+        <v>600</v>
       </c>
       <c r="I630" t="s">
-        <v>2249</v>
+        <v>2511</v>
       </c>
       <c r="J630" t="s">
-        <v>2509</v>
+        <v>2512</v>
       </c>
       <c r="K630"/>
-      <c r="L630" t="s">
-        <v>469</v>
-      </c>
+      <c r="L630"/>
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>2510</v>
+        <v>2513</v>
       </c>
       <c r="B631" t="s">
-        <v>2511</v>
+        <v>2514</v>
       </c>
       <c r="C631" t="s">
         <v>577</v>
@@ -28205,26 +28197,26 @@
         <v>15</v>
       </c>
       <c r="H631" t="s">
-        <v>600</v>
+        <v>693</v>
       </c>
       <c r="I631" t="s">
-        <v>2512</v>
+        <v>2515</v>
       </c>
       <c r="J631" t="s">
-        <v>2513</v>
+        <v>2516</v>
       </c>
       <c r="K631"/>
       <c r="L631"/>
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>2514</v>
+        <v>423</v>
       </c>
       <c r="B632" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="C632" t="s">
-        <v>577</v>
+        <v>15</v>
       </c>
       <c r="D632"/>
       <c r="E632"/>
@@ -28232,26 +28224,28 @@
         <v>288</v>
       </c>
       <c r="G632" t="s">
-        <v>15</v>
+        <v>426</v>
       </c>
       <c r="H632" t="s">
-        <v>693</v>
+        <v>2518</v>
       </c>
       <c r="I632" t="s">
-        <v>2516</v>
+        <v>2519</v>
       </c>
       <c r="J632" t="s">
-        <v>2517</v>
+        <v>2520</v>
       </c>
       <c r="K632"/>
-      <c r="L632"/>
+      <c r="L632" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>423</v>
+        <v>2521</v>
       </c>
       <c r="B633" t="s">
-        <v>2518</v>
+        <v>2522</v>
       </c>
       <c r="C633" t="s">
         <v>15</v>
@@ -28262,28 +28256,26 @@
         <v>288</v>
       </c>
       <c r="G633" t="s">
-        <v>426</v>
+        <v>15</v>
       </c>
       <c r="H633" t="s">
-        <v>2519</v>
+        <v>2523</v>
       </c>
       <c r="I633" t="s">
-        <v>2520</v>
+        <v>2524</v>
       </c>
       <c r="J633" t="s">
-        <v>2521</v>
+        <v>2525</v>
       </c>
       <c r="K633"/>
-      <c r="L633" t="s">
-        <v>84</v>
-      </c>
+      <c r="L633"/>
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>2522</v>
+        <v>2526</v>
       </c>
       <c r="B634" t="s">
-        <v>2523</v>
+        <v>2527</v>
       </c>
       <c r="C634" t="s">
         <v>15</v>
@@ -28297,26 +28289,26 @@
         <v>15</v>
       </c>
       <c r="H634" t="s">
-        <v>2524</v>
+        <v>448</v>
       </c>
       <c r="I634" t="s">
-        <v>2525</v>
+        <v>2528</v>
       </c>
       <c r="J634" t="s">
-        <v>2526</v>
+        <v>2529</v>
       </c>
       <c r="K634"/>
       <c r="L634"/>
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>2527</v>
+        <v>423</v>
       </c>
       <c r="B635" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="C635" t="s">
-        <v>15</v>
+        <v>577</v>
       </c>
       <c r="D635"/>
       <c r="E635"/>
@@ -28327,26 +28319,26 @@
         <v>15</v>
       </c>
       <c r="H635" t="s">
-        <v>448</v>
+        <v>924</v>
       </c>
       <c r="I635" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="J635" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="K635"/>
       <c r="L635"/>
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>423</v>
+        <v>2533</v>
       </c>
       <c r="B636" t="s">
-        <v>2531</v>
+        <v>15</v>
       </c>
       <c r="C636" t="s">
-        <v>577</v>
+        <v>1220</v>
       </c>
       <c r="D636"/>
       <c r="E636"/>
@@ -28354,23 +28346,25 @@
         <v>288</v>
       </c>
       <c r="G636" t="s">
-        <v>15</v>
+        <v>2534</v>
       </c>
       <c r="H636" t="s">
-        <v>924</v>
+        <v>15</v>
       </c>
       <c r="I636" t="s">
-        <v>2532</v>
+        <v>480</v>
       </c>
       <c r="J636" t="s">
-        <v>2533</v>
+        <v>15</v>
       </c>
       <c r="K636"/>
-      <c r="L636"/>
+      <c r="L636" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>2534</v>
+        <v>1997</v>
       </c>
       <c r="B637" t="s">
         <v>15</v>
@@ -28384,25 +28378,25 @@
         <v>288</v>
       </c>
       <c r="G637" t="s">
+        <v>15</v>
+      </c>
+      <c r="H637" t="s">
+        <v>15</v>
+      </c>
+      <c r="I637" t="s">
         <v>2535</v>
-      </c>
-      <c r="H637" t="s">
-        <v>15</v>
-      </c>
-      <c r="I637" t="s">
-        <v>480</v>
       </c>
       <c r="J637" t="s">
         <v>15</v>
       </c>
       <c r="K637"/>
       <c r="L637" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>1997</v>
+        <v>2536</v>
       </c>
       <c r="B638" t="s">
         <v>15</v>
@@ -28416,25 +28410,25 @@
         <v>288</v>
       </c>
       <c r="G638" t="s">
-        <v>15</v>
+        <v>579</v>
       </c>
       <c r="H638" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I638" t="s">
-        <v>2536</v>
+        <v>2249</v>
       </c>
       <c r="J638" t="s">
-        <v>15</v>
+        <v>2537</v>
       </c>
       <c r="K638"/>
       <c r="L638" t="s">
-        <v>89</v>
+        <v>950</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="B639" t="s">
         <v>15</v>
@@ -28451,25 +28445,25 @@
         <v>579</v>
       </c>
       <c r="H639" t="s">
-        <v>13</v>
+        <v>2311</v>
       </c>
       <c r="I639" t="s">
         <v>2249</v>
       </c>
       <c r="J639" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="K639"/>
       <c r="L639" t="s">
-        <v>950</v>
+        <v>469</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="B640" t="s">
-        <v>15</v>
+        <v>2541</v>
       </c>
       <c r="C640" t="s">
         <v>1220</v>
@@ -28480,31 +28474,31 @@
         <v>288</v>
       </c>
       <c r="G640" t="s">
-        <v>579</v>
+        <v>2542</v>
       </c>
       <c r="H640" t="s">
-        <v>2311</v>
+        <v>1370</v>
       </c>
       <c r="I640" t="s">
-        <v>2249</v>
+        <v>2543</v>
       </c>
       <c r="J640" t="s">
-        <v>2540</v>
+        <v>2544</v>
       </c>
       <c r="K640"/>
       <c r="L640" t="s">
-        <v>469</v>
+        <v>25</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>2541</v>
+        <v>2545</v>
       </c>
       <c r="B641" t="s">
-        <v>2542</v>
+        <v>2546</v>
       </c>
       <c r="C641" t="s">
-        <v>1220</v>
+        <v>15</v>
       </c>
       <c r="D641"/>
       <c r="E641"/>
@@ -28512,31 +28506,31 @@
         <v>288</v>
       </c>
       <c r="G641" t="s">
-        <v>2543</v>
+        <v>448</v>
       </c>
       <c r="H641" t="s">
-        <v>1370</v>
+        <v>2547</v>
       </c>
       <c r="I641" t="s">
-        <v>2544</v>
+        <v>2548</v>
       </c>
       <c r="J641" t="s">
-        <v>2545</v>
+        <v>2549</v>
       </c>
       <c r="K641"/>
       <c r="L641" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>2546</v>
+        <v>2550</v>
       </c>
       <c r="B642" t="s">
-        <v>2547</v>
+        <v>2551</v>
       </c>
       <c r="C642" t="s">
-        <v>15</v>
+        <v>1220</v>
       </c>
       <c r="D642"/>
       <c r="E642"/>
@@ -28544,60 +28538,58 @@
         <v>288</v>
       </c>
       <c r="G642" t="s">
-        <v>448</v>
+        <v>2552</v>
       </c>
       <c r="H642" t="s">
-        <v>2548</v>
+        <v>2553</v>
       </c>
       <c r="I642" t="s">
-        <v>2549</v>
+        <v>2554</v>
       </c>
       <c r="J642" t="s">
-        <v>2550</v>
+        <v>2555</v>
       </c>
       <c r="K642"/>
       <c r="L642" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>2551</v>
+        <v>2556</v>
       </c>
       <c r="B643" t="s">
-        <v>2552</v>
+        <v>2557</v>
       </c>
       <c r="C643" t="s">
-        <v>1220</v>
+        <v>577</v>
       </c>
       <c r="D643"/>
       <c r="E643"/>
       <c r="F643" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="G643" t="s">
-        <v>2553</v>
+        <v>15</v>
       </c>
       <c r="H643" t="s">
-        <v>2554</v>
+        <v>924</v>
       </c>
       <c r="I643" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
       <c r="J643" t="s">
-        <v>2556</v>
+        <v>2559</v>
       </c>
       <c r="K643"/>
-      <c r="L643" t="s">
-        <v>84</v>
-      </c>
+      <c r="L643"/>
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="B644" t="s">
-        <v>2558</v>
+        <v>2561</v>
       </c>
       <c r="C644" t="s">
         <v>577</v>
@@ -28605,29 +28597,29 @@
       <c r="D644"/>
       <c r="E644"/>
       <c r="F644" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="G644" t="s">
         <v>15</v>
       </c>
       <c r="H644" t="s">
-        <v>924</v>
+        <v>600</v>
       </c>
       <c r="I644" t="s">
-        <v>2559</v>
+        <v>2562</v>
       </c>
       <c r="J644" t="s">
-        <v>2560</v>
+        <v>2563</v>
       </c>
       <c r="K644"/>
       <c r="L644"/>
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>2561</v>
+        <v>2564</v>
       </c>
       <c r="B645" t="s">
-        <v>2562</v>
+        <v>2565</v>
       </c>
       <c r="C645" t="s">
         <v>577</v>
@@ -28641,23 +28633,23 @@
         <v>15</v>
       </c>
       <c r="H645" t="s">
-        <v>600</v>
+        <v>693</v>
       </c>
       <c r="I645" t="s">
-        <v>2563</v>
+        <v>762</v>
       </c>
       <c r="J645" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c r="K645"/>
       <c r="L645"/>
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="B646" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="C646" t="s">
         <v>577</v>
@@ -28671,23 +28663,23 @@
         <v>15</v>
       </c>
       <c r="H646" t="s">
-        <v>693</v>
+        <v>600</v>
       </c>
       <c r="I646" t="s">
-        <v>762</v>
+        <v>2569</v>
       </c>
       <c r="J646" t="s">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="K646"/>
       <c r="L646"/>
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>2568</v>
+        <v>2571</v>
       </c>
       <c r="B647" t="s">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="C647" t="s">
         <v>577</v>
@@ -28704,20 +28696,20 @@
         <v>600</v>
       </c>
       <c r="I647" t="s">
-        <v>2570</v>
+        <v>2573</v>
       </c>
       <c r="J647" t="s">
-        <v>2571</v>
+        <v>2574</v>
       </c>
       <c r="K647"/>
       <c r="L647"/>
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>2572</v>
+        <v>2575</v>
       </c>
       <c r="B648" t="s">
-        <v>2573</v>
+        <v>2576</v>
       </c>
       <c r="C648" t="s">
         <v>577</v>
@@ -28731,23 +28723,23 @@
         <v>15</v>
       </c>
       <c r="H648" t="s">
-        <v>600</v>
+        <v>693</v>
       </c>
       <c r="I648" t="s">
-        <v>2574</v>
+        <v>2577</v>
       </c>
       <c r="J648" t="s">
-        <v>2575</v>
+        <v>2578</v>
       </c>
       <c r="K648"/>
       <c r="L648"/>
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>2576</v>
+        <v>2579</v>
       </c>
       <c r="B649" t="s">
-        <v>2577</v>
+        <v>2580</v>
       </c>
       <c r="C649" t="s">
         <v>577</v>
@@ -28758,26 +28750,28 @@
         <v>288</v>
       </c>
       <c r="G649" t="s">
-        <v>15</v>
+        <v>2423</v>
       </c>
       <c r="H649" t="s">
-        <v>693</v>
+        <v>15</v>
       </c>
       <c r="I649" t="s">
-        <v>2578</v>
+        <v>2581</v>
       </c>
       <c r="J649" t="s">
-        <v>2579</v>
+        <v>2582</v>
       </c>
       <c r="K649"/>
-      <c r="L649"/>
+      <c r="L649" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>2580</v>
+        <v>2583</v>
       </c>
       <c r="B650" t="s">
-        <v>2581</v>
+        <v>2584</v>
       </c>
       <c r="C650" t="s">
         <v>577</v>
@@ -28788,28 +28782,26 @@
         <v>288</v>
       </c>
       <c r="G650" t="s">
-        <v>2424</v>
+        <v>15</v>
       </c>
       <c r="H650" t="s">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="I650" t="s">
-        <v>2582</v>
+        <v>2585</v>
       </c>
       <c r="J650" t="s">
-        <v>2583</v>
+        <v>2586</v>
       </c>
       <c r="K650"/>
-      <c r="L650" t="s">
-        <v>157</v>
-      </c>
+      <c r="L650"/>
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>2584</v>
+        <v>2587</v>
       </c>
       <c r="B651" t="s">
-        <v>2585</v>
+        <v>2588</v>
       </c>
       <c r="C651" t="s">
         <v>577</v>
@@ -28826,20 +28818,20 @@
         <v>600</v>
       </c>
       <c r="I651" t="s">
-        <v>2586</v>
+        <v>2589</v>
       </c>
       <c r="J651" t="s">
-        <v>2587</v>
+        <v>2590</v>
       </c>
       <c r="K651"/>
       <c r="L651"/>
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>2588</v>
+        <v>2591</v>
       </c>
       <c r="B652" t="s">
-        <v>2589</v>
+        <v>2592</v>
       </c>
       <c r="C652" t="s">
         <v>577</v>
@@ -28856,20 +28848,20 @@
         <v>600</v>
       </c>
       <c r="I652" t="s">
-        <v>2590</v>
+        <v>1304</v>
       </c>
       <c r="J652" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="K652"/>
       <c r="L652"/>
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="B653" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="C653" t="s">
         <v>577</v>
@@ -28886,20 +28878,20 @@
         <v>600</v>
       </c>
       <c r="I653" t="s">
-        <v>1304</v>
+        <v>2596</v>
       </c>
       <c r="J653" t="s">
-        <v>2594</v>
+        <v>2597</v>
       </c>
       <c r="K653"/>
       <c r="L653"/>
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>2595</v>
+        <v>2598</v>
       </c>
       <c r="B654" t="s">
-        <v>2596</v>
+        <v>2599</v>
       </c>
       <c r="C654" t="s">
         <v>577</v>
@@ -28916,20 +28908,20 @@
         <v>600</v>
       </c>
       <c r="I654" t="s">
-        <v>2597</v>
+        <v>2600</v>
       </c>
       <c r="J654" t="s">
-        <v>2598</v>
+        <v>2601</v>
       </c>
       <c r="K654"/>
       <c r="L654"/>
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>2599</v>
+        <v>2602</v>
       </c>
       <c r="B655" t="s">
-        <v>2600</v>
+        <v>2603</v>
       </c>
       <c r="C655" t="s">
         <v>577</v>
@@ -28943,23 +28935,23 @@
         <v>15</v>
       </c>
       <c r="H655" t="s">
-        <v>600</v>
+        <v>693</v>
       </c>
       <c r="I655" t="s">
-        <v>2601</v>
+        <v>2604</v>
       </c>
       <c r="J655" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="K655"/>
       <c r="L655"/>
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>2603</v>
+        <v>2606</v>
       </c>
       <c r="B656" t="s">
-        <v>2604</v>
+        <v>2607</v>
       </c>
       <c r="C656" t="s">
         <v>577</v>
@@ -28973,23 +28965,23 @@
         <v>15</v>
       </c>
       <c r="H656" t="s">
-        <v>693</v>
+        <v>2608</v>
       </c>
       <c r="I656" t="s">
-        <v>2605</v>
+        <v>2609</v>
       </c>
       <c r="J656" t="s">
-        <v>2606</v>
+        <v>2610</v>
       </c>
       <c r="K656"/>
       <c r="L656"/>
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>2607</v>
+        <v>2611</v>
       </c>
       <c r="B657" t="s">
-        <v>2608</v>
+        <v>2612</v>
       </c>
       <c r="C657" t="s">
         <v>577</v>
@@ -29000,26 +28992,28 @@
         <v>288</v>
       </c>
       <c r="G657" t="s">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="H657" t="s">
-        <v>2609</v>
+        <v>15</v>
       </c>
       <c r="I657" t="s">
-        <v>2610</v>
+        <v>2613</v>
       </c>
       <c r="J657" t="s">
-        <v>2611</v>
+        <v>2614</v>
       </c>
       <c r="K657"/>
-      <c r="L657"/>
+      <c r="L657" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="B658" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="C658" t="s">
         <v>577</v>
@@ -29036,22 +29030,22 @@
         <v>15</v>
       </c>
       <c r="I658" t="s">
-        <v>2614</v>
+        <v>2115</v>
       </c>
       <c r="J658" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="K658"/>
       <c r="L658" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>2612</v>
+        <v>2617</v>
       </c>
       <c r="B659" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="C659" t="s">
         <v>577</v>
@@ -29062,28 +29056,26 @@
         <v>288</v>
       </c>
       <c r="G659" t="s">
+        <v>15</v>
+      </c>
+      <c r="H659" t="s">
         <v>600</v>
       </c>
-      <c r="H659" t="s">
-        <v>15</v>
-      </c>
       <c r="I659" t="s">
-        <v>2115</v>
+        <v>2619</v>
       </c>
       <c r="J659" t="s">
-        <v>2617</v>
+        <v>2620</v>
       </c>
       <c r="K659"/>
-      <c r="L659" t="s">
-        <v>57</v>
-      </c>
+      <c r="L659"/>
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>2618</v>
+        <v>2621</v>
       </c>
       <c r="B660" t="s">
-        <v>2619</v>
+        <v>2622</v>
       </c>
       <c r="C660" t="s">
         <v>577</v>
@@ -29100,20 +29092,20 @@
         <v>600</v>
       </c>
       <c r="I660" t="s">
-        <v>2620</v>
+        <v>2623</v>
       </c>
       <c r="J660" t="s">
-        <v>2621</v>
+        <v>2624</v>
       </c>
       <c r="K660"/>
       <c r="L660"/>
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>2622</v>
+        <v>2625</v>
       </c>
       <c r="B661" t="s">
-        <v>2623</v>
+        <v>2626</v>
       </c>
       <c r="C661" t="s">
         <v>577</v>
@@ -29130,23 +29122,23 @@
         <v>600</v>
       </c>
       <c r="I661" t="s">
-        <v>2624</v>
+        <v>2627</v>
       </c>
       <c r="J661" t="s">
-        <v>2625</v>
+        <v>2628</v>
       </c>
       <c r="K661"/>
       <c r="L661"/>
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>2626</v>
+        <v>2629</v>
       </c>
       <c r="B662" t="s">
-        <v>2627</v>
+        <v>15</v>
       </c>
       <c r="C662" t="s">
-        <v>577</v>
+        <v>1220</v>
       </c>
       <c r="D662"/>
       <c r="E662"/>
@@ -29154,23 +29146,25 @@
         <v>288</v>
       </c>
       <c r="G662" t="s">
-        <v>15</v>
+        <v>2630</v>
       </c>
       <c r="H662" t="s">
-        <v>600</v>
+        <v>2631</v>
       </c>
       <c r="I662" t="s">
-        <v>2628</v>
+        <v>2632</v>
       </c>
       <c r="J662" t="s">
-        <v>2629</v>
+        <v>15</v>
       </c>
       <c r="K662"/>
-      <c r="L662"/>
+      <c r="L662" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>2630</v>
+        <v>2633</v>
       </c>
       <c r="B663" t="s">
         <v>15</v>
@@ -29184,31 +29178,31 @@
         <v>288</v>
       </c>
       <c r="G663" t="s">
-        <v>2631</v>
+        <v>2634</v>
       </c>
       <c r="H663" t="s">
-        <v>2632</v>
+        <v>2635</v>
       </c>
       <c r="I663" t="s">
-        <v>2633</v>
+        <v>2636</v>
       </c>
       <c r="J663" t="s">
-        <v>15</v>
+        <v>2637</v>
       </c>
       <c r="K663"/>
       <c r="L663" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>2634</v>
+        <v>2638</v>
       </c>
       <c r="B664" t="s">
-        <v>15</v>
+        <v>2639</v>
       </c>
       <c r="C664" t="s">
-        <v>1220</v>
+        <v>15</v>
       </c>
       <c r="D664"/>
       <c r="E664"/>
@@ -29216,31 +29210,31 @@
         <v>288</v>
       </c>
       <c r="G664" t="s">
-        <v>2635</v>
+        <v>2640</v>
       </c>
       <c r="H664" t="s">
-        <v>2636</v>
+        <v>2641</v>
       </c>
       <c r="I664" t="s">
-        <v>2637</v>
+        <v>2642</v>
       </c>
       <c r="J664" t="s">
-        <v>2638</v>
+        <v>2643</v>
       </c>
       <c r="K664"/>
       <c r="L664" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>2639</v>
+        <v>2644</v>
       </c>
       <c r="B665" t="s">
-        <v>2640</v>
+        <v>1063</v>
       </c>
       <c r="C665" t="s">
-        <v>15</v>
+        <v>1220</v>
       </c>
       <c r="D665"/>
       <c r="E665"/>
@@ -29248,31 +29242,29 @@
         <v>288</v>
       </c>
       <c r="G665" t="s">
-        <v>2641</v>
+        <v>15</v>
       </c>
       <c r="H665" t="s">
-        <v>2642</v>
+        <v>448</v>
       </c>
       <c r="I665" t="s">
-        <v>2643</v>
+        <v>1065</v>
       </c>
       <c r="J665" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="K665"/>
-      <c r="L665" t="s">
-        <v>30</v>
-      </c>
+      <c r="L665"/>
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="B666" t="s">
-        <v>1063</v>
+        <v>2647</v>
       </c>
       <c r="C666" t="s">
-        <v>1220</v>
+        <v>15</v>
       </c>
       <c r="D666"/>
       <c r="E666"/>
@@ -29283,26 +29275,26 @@
         <v>15</v>
       </c>
       <c r="H666" t="s">
-        <v>448</v>
+        <v>324</v>
       </c>
       <c r="I666" t="s">
-        <v>1065</v>
+        <v>2648</v>
       </c>
       <c r="J666" t="s">
-        <v>2646</v>
+        <v>2649</v>
       </c>
       <c r="K666"/>
       <c r="L666"/>
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>2647</v>
+        <v>2650</v>
       </c>
       <c r="B667" t="s">
-        <v>2648</v>
+        <v>2651</v>
       </c>
       <c r="C667" t="s">
-        <v>15</v>
+        <v>577</v>
       </c>
       <c r="D667"/>
       <c r="E667"/>
@@ -29313,23 +29305,23 @@
         <v>15</v>
       </c>
       <c r="H667" t="s">
-        <v>324</v>
+        <v>1029</v>
       </c>
       <c r="I667" t="s">
-        <v>2649</v>
+        <v>2652</v>
       </c>
       <c r="J667" t="s">
-        <v>2650</v>
+        <v>2653</v>
       </c>
       <c r="K667"/>
       <c r="L667"/>
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>2651</v>
+        <v>2654</v>
       </c>
       <c r="B668" t="s">
-        <v>2652</v>
+        <v>2655</v>
       </c>
       <c r="C668" t="s">
         <v>577</v>
@@ -29337,29 +29329,31 @@
       <c r="D668"/>
       <c r="E668"/>
       <c r="F668" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="G668" t="s">
-        <v>15</v>
+        <v>936</v>
       </c>
       <c r="H668" t="s">
-        <v>1029</v>
+        <v>2656</v>
       </c>
       <c r="I668" t="s">
-        <v>2653</v>
+        <v>2657</v>
       </c>
       <c r="J668" t="s">
-        <v>2654</v>
+        <v>2658</v>
       </c>
       <c r="K668"/>
-      <c r="L668"/>
+      <c r="L668" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>2655</v>
+        <v>2659</v>
       </c>
       <c r="B669" t="s">
-        <v>2656</v>
+        <v>2660</v>
       </c>
       <c r="C669" t="s">
         <v>577</v>
@@ -29367,31 +29361,31 @@
       <c r="D669"/>
       <c r="E669"/>
       <c r="F669" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="G669" t="s">
-        <v>936</v>
+        <v>600</v>
       </c>
       <c r="H669" t="s">
-        <v>2657</v>
+        <v>2385</v>
       </c>
       <c r="I669" t="s">
-        <v>2658</v>
+        <v>2661</v>
       </c>
       <c r="J669" t="s">
-        <v>2659</v>
+        <v>2662</v>
       </c>
       <c r="K669"/>
       <c r="L669" t="s">
-        <v>639</v>
+        <v>89</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>2660</v>
+        <v>2663</v>
       </c>
       <c r="B670" t="s">
-        <v>2661</v>
+        <v>2664</v>
       </c>
       <c r="C670" t="s">
         <v>577</v>
@@ -29399,31 +29393,31 @@
       <c r="D670"/>
       <c r="E670"/>
       <c r="F670" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G670" t="s">
         <v>600</v>
       </c>
       <c r="H670" t="s">
-        <v>2386</v>
+        <v>2665</v>
       </c>
       <c r="I670" t="s">
-        <v>2662</v>
+        <v>2666</v>
       </c>
       <c r="J670" t="s">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="K670"/>
       <c r="L670" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>2664</v>
+        <v>2668</v>
       </c>
       <c r="B671" t="s">
-        <v>2665</v>
+        <v>2669</v>
       </c>
       <c r="C671" t="s">
         <v>577</v>
@@ -29434,31 +29428,31 @@
         <v>267</v>
       </c>
       <c r="G671" t="s">
-        <v>600</v>
+        <v>1029</v>
       </c>
       <c r="H671" t="s">
-        <v>2666</v>
+        <v>2670</v>
       </c>
       <c r="I671" t="s">
-        <v>2667</v>
+        <v>2671</v>
       </c>
       <c r="J671" t="s">
-        <v>2668</v>
+        <v>2672</v>
       </c>
       <c r="K671"/>
       <c r="L671" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>2669</v>
+        <v>423</v>
       </c>
       <c r="B672" t="s">
-        <v>2670</v>
+        <v>2673</v>
       </c>
       <c r="C672" t="s">
-        <v>577</v>
+        <v>15</v>
       </c>
       <c r="D672"/>
       <c r="E672"/>
@@ -29466,63 +29460,63 @@
         <v>267</v>
       </c>
       <c r="G672" t="s">
-        <v>1029</v>
+        <v>324</v>
       </c>
       <c r="H672" t="s">
-        <v>2671</v>
+        <v>2674</v>
       </c>
       <c r="I672" t="s">
-        <v>2672</v>
+        <v>2675</v>
       </c>
       <c r="J672" t="s">
-        <v>2673</v>
+        <v>2676</v>
       </c>
       <c r="K672"/>
       <c r="L672" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>423</v>
+        <v>2677</v>
       </c>
       <c r="B673" t="s">
-        <v>2674</v>
+        <v>2678</v>
       </c>
       <c r="C673" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D673"/>
       <c r="E673"/>
       <c r="F673" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="G673" t="s">
-        <v>324</v>
+        <v>2423</v>
       </c>
       <c r="H673" t="s">
-        <v>2675</v>
+        <v>15</v>
       </c>
       <c r="I673" t="s">
-        <v>2676</v>
+        <v>2679</v>
       </c>
       <c r="J673" t="s">
-        <v>2677</v>
+        <v>2680</v>
       </c>
       <c r="K673"/>
       <c r="L673" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>2678</v>
+        <v>2681</v>
       </c>
       <c r="B674" t="s">
-        <v>2679</v>
+        <v>2682</v>
       </c>
       <c r="C674" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D674"/>
       <c r="E674"/>
@@ -29530,31 +29524,31 @@
         <v>288</v>
       </c>
       <c r="G674" t="s">
-        <v>2424</v>
+        <v>1764</v>
       </c>
       <c r="H674" t="s">
         <v>15</v>
       </c>
       <c r="I674" t="s">
-        <v>2680</v>
+        <v>2683</v>
       </c>
       <c r="J674" t="s">
-        <v>2681</v>
+        <v>2684</v>
       </c>
       <c r="K674"/>
       <c r="L674" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>2682</v>
+        <v>2685</v>
       </c>
       <c r="B675" t="s">
-        <v>2683</v>
+        <v>15</v>
       </c>
       <c r="C675" t="s">
-        <v>15</v>
+        <v>1220</v>
       </c>
       <c r="D675"/>
       <c r="E675"/>
@@ -29562,28 +29556,26 @@
         <v>288</v>
       </c>
       <c r="G675" t="s">
-        <v>1764</v>
+        <v>15</v>
       </c>
       <c r="H675" t="s">
         <v>15</v>
       </c>
       <c r="I675" t="s">
-        <v>2684</v>
+        <v>2686</v>
       </c>
       <c r="J675" t="s">
-        <v>2685</v>
+        <v>15</v>
       </c>
       <c r="K675"/>
-      <c r="L675" t="s">
-        <v>89</v>
-      </c>
+      <c r="L675"/>
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="B676" t="s">
-        <v>15</v>
+        <v>2688</v>
       </c>
       <c r="C676" t="s">
         <v>1220</v>
@@ -29597,23 +29589,23 @@
         <v>15</v>
       </c>
       <c r="H676" t="s">
-        <v>15</v>
+        <v>2689</v>
       </c>
       <c r="I676" t="s">
-        <v>2687</v>
+        <v>2690</v>
       </c>
       <c r="J676" t="s">
-        <v>15</v>
+        <v>2691</v>
       </c>
       <c r="K676"/>
       <c r="L676"/>
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>2688</v>
+        <v>2692</v>
       </c>
       <c r="B677" t="s">
-        <v>2689</v>
+        <v>15</v>
       </c>
       <c r="C677" t="s">
         <v>1220</v>
@@ -29627,26 +29619,26 @@
         <v>15</v>
       </c>
       <c r="H677" t="s">
-        <v>2690</v>
+        <v>15</v>
       </c>
       <c r="I677" t="s">
-        <v>2691</v>
+        <v>2693</v>
       </c>
       <c r="J677" t="s">
-        <v>2692</v>
+        <v>15</v>
       </c>
       <c r="K677"/>
       <c r="L677"/>
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>2693</v>
+        <v>404</v>
       </c>
       <c r="B678" t="s">
-        <v>15</v>
+        <v>2694</v>
       </c>
       <c r="C678" t="s">
-        <v>1220</v>
+        <v>577</v>
       </c>
       <c r="D678"/>
       <c r="E678"/>
@@ -29654,29 +29646,31 @@
         <v>288</v>
       </c>
       <c r="G678" t="s">
-        <v>15</v>
+        <v>1029</v>
       </c>
       <c r="H678" t="s">
-        <v>15</v>
+        <v>2695</v>
       </c>
       <c r="I678" t="s">
-        <v>2694</v>
+        <v>2696</v>
       </c>
       <c r="J678" t="s">
-        <v>15</v>
+        <v>2697</v>
       </c>
       <c r="K678"/>
-      <c r="L678"/>
+      <c r="L678" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>404</v>
+        <v>2654</v>
       </c>
       <c r="B679" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="C679" t="s">
-        <v>577</v>
+        <v>15</v>
       </c>
       <c r="D679"/>
       <c r="E679"/>
@@ -29684,31 +29678,31 @@
         <v>288</v>
       </c>
       <c r="G679" t="s">
-        <v>1029</v>
+        <v>434</v>
       </c>
       <c r="H679" t="s">
-        <v>2696</v>
+        <v>2699</v>
       </c>
       <c r="I679" t="s">
-        <v>2697</v>
+        <v>2700</v>
       </c>
       <c r="J679" t="s">
-        <v>2698</v>
+        <v>2701</v>
       </c>
       <c r="K679"/>
       <c r="L679" t="s">
-        <v>469</v>
+        <v>639</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>2655</v>
+        <v>2702</v>
       </c>
       <c r="B680" t="s">
-        <v>2699</v>
+        <v>15</v>
       </c>
       <c r="C680" t="s">
-        <v>15</v>
+        <v>1220</v>
       </c>
       <c r="D680"/>
       <c r="E680"/>
@@ -29716,25 +29710,23 @@
         <v>288</v>
       </c>
       <c r="G680" t="s">
-        <v>434</v>
+        <v>15</v>
       </c>
       <c r="H680" t="s">
-        <v>2700</v>
+        <v>15</v>
       </c>
       <c r="I680" t="s">
-        <v>2701</v>
+        <v>2703</v>
       </c>
       <c r="J680" t="s">
-        <v>2702</v>
+        <v>15</v>
       </c>
       <c r="K680"/>
-      <c r="L680" t="s">
-        <v>639</v>
-      </c>
+      <c r="L680"/>
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>2703</v>
+        <v>423</v>
       </c>
       <c r="B681" t="s">
         <v>15</v>
@@ -29764,7 +29756,7 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>423</v>
+        <v>2705</v>
       </c>
       <c r="B682" t="s">
         <v>15</v>
@@ -29778,29 +29770,31 @@
         <v>288</v>
       </c>
       <c r="G682" t="s">
-        <v>15</v>
+        <v>2706</v>
       </c>
       <c r="H682" t="s">
-        <v>15</v>
+        <v>2707</v>
       </c>
       <c r="I682" t="s">
-        <v>2705</v>
+        <v>2708</v>
       </c>
       <c r="J682" t="s">
         <v>15</v>
       </c>
       <c r="K682"/>
-      <c r="L682"/>
+      <c r="L682" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>2706</v>
+        <v>423</v>
       </c>
       <c r="B683" t="s">
-        <v>15</v>
+        <v>2709</v>
       </c>
       <c r="C683" t="s">
-        <v>1220</v>
+        <v>2710</v>
       </c>
       <c r="D683"/>
       <c r="E683"/>
@@ -29811,20 +29805,20 @@
         <v>15</v>
       </c>
       <c r="H683" t="s">
-        <v>15</v>
+        <v>710</v>
       </c>
       <c r="I683" t="s">
-        <v>2694</v>
+        <v>2711</v>
       </c>
       <c r="J683" t="s">
-        <v>15</v>
+        <v>2712</v>
       </c>
       <c r="K683"/>
       <c r="L683"/>
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>2707</v>
+        <v>2713</v>
       </c>
       <c r="B684" t="s">
         <v>15</v>
@@ -29838,31 +29832,29 @@
         <v>288</v>
       </c>
       <c r="G684" t="s">
-        <v>2708</v>
+        <v>15</v>
       </c>
       <c r="H684" t="s">
-        <v>2709</v>
+        <v>15</v>
       </c>
       <c r="I684" t="s">
-        <v>2710</v>
+        <v>2714</v>
       </c>
       <c r="J684" t="s">
         <v>15</v>
       </c>
       <c r="K684"/>
-      <c r="L684" t="s">
-        <v>89</v>
-      </c>
+      <c r="L684"/>
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>423</v>
+        <v>2715</v>
       </c>
       <c r="B685" t="s">
-        <v>2711</v>
+        <v>2716</v>
       </c>
       <c r="C685" t="s">
-        <v>2712</v>
+        <v>577</v>
       </c>
       <c r="D685"/>
       <c r="E685"/>
@@ -29870,29 +29862,31 @@
         <v>288</v>
       </c>
       <c r="G685" t="s">
-        <v>15</v>
+        <v>924</v>
       </c>
       <c r="H685" t="s">
-        <v>710</v>
+        <v>15</v>
       </c>
       <c r="I685" t="s">
-        <v>2713</v>
+        <v>2717</v>
       </c>
       <c r="J685" t="s">
-        <v>2714</v>
+        <v>2718</v>
       </c>
       <c r="K685"/>
-      <c r="L685"/>
+      <c r="L685" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>2715</v>
+        <v>2719</v>
       </c>
       <c r="B686" t="s">
-        <v>15</v>
+        <v>2720</v>
       </c>
       <c r="C686" t="s">
-        <v>1220</v>
+        <v>577</v>
       </c>
       <c r="D686"/>
       <c r="E686"/>
@@ -29903,26 +29897,26 @@
         <v>15</v>
       </c>
       <c r="H686" t="s">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="I686" t="s">
-        <v>2716</v>
+        <v>2721</v>
       </c>
       <c r="J686" t="s">
-        <v>15</v>
+        <v>2722</v>
       </c>
       <c r="K686"/>
       <c r="L686"/>
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>2717</v>
+        <v>2723</v>
       </c>
       <c r="B687" t="s">
-        <v>2718</v>
+        <v>15</v>
       </c>
       <c r="C687" t="s">
-        <v>577</v>
+        <v>1220</v>
       </c>
       <c r="D687"/>
       <c r="E687"/>
@@ -29930,28 +29924,28 @@
         <v>288</v>
       </c>
       <c r="G687" t="s">
-        <v>924</v>
+        <v>15</v>
       </c>
       <c r="H687" t="s">
         <v>15</v>
       </c>
       <c r="I687" t="s">
-        <v>2719</v>
+        <v>2724</v>
       </c>
       <c r="J687" t="s">
-        <v>2720</v>
+        <v>15</v>
       </c>
       <c r="K687"/>
       <c r="L687" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>2721</v>
+        <v>2725</v>
       </c>
       <c r="B688" t="s">
-        <v>2722</v>
+        <v>2726</v>
       </c>
       <c r="C688" t="s">
         <v>577</v>
@@ -29968,23 +29962,23 @@
         <v>600</v>
       </c>
       <c r="I688" t="s">
-        <v>2723</v>
+        <v>2727</v>
       </c>
       <c r="J688" t="s">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="K688"/>
       <c r="L688"/>
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>2725</v>
+        <v>2729</v>
       </c>
       <c r="B689" t="s">
-        <v>15</v>
+        <v>2730</v>
       </c>
       <c r="C689" t="s">
-        <v>1220</v>
+        <v>577</v>
       </c>
       <c r="D689"/>
       <c r="E689"/>
@@ -29995,28 +29989,26 @@
         <v>15</v>
       </c>
       <c r="H689" t="s">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="I689" t="s">
-        <v>2726</v>
+        <v>2731</v>
       </c>
       <c r="J689" t="s">
-        <v>15</v>
+        <v>2732</v>
       </c>
       <c r="K689"/>
-      <c r="L689" t="s">
-        <v>94</v>
-      </c>
+      <c r="L689"/>
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>2727</v>
+        <v>2733</v>
       </c>
       <c r="B690" t="s">
-        <v>2728</v>
+        <v>15</v>
       </c>
       <c r="C690" t="s">
-        <v>577</v>
+        <v>1220</v>
       </c>
       <c r="D690"/>
       <c r="E690"/>
@@ -30027,23 +30019,23 @@
         <v>15</v>
       </c>
       <c r="H690" t="s">
-        <v>600</v>
+        <v>15</v>
       </c>
       <c r="I690" t="s">
-        <v>2729</v>
+        <v>2734</v>
       </c>
       <c r="J690" t="s">
-        <v>2730</v>
+        <v>15</v>
       </c>
       <c r="K690"/>
       <c r="L690"/>
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>2731</v>
+        <v>2735</v>
       </c>
       <c r="B691" t="s">
-        <v>2732</v>
+        <v>2736</v>
       </c>
       <c r="C691" t="s">
         <v>577</v>
@@ -30060,23 +30052,23 @@
         <v>600</v>
       </c>
       <c r="I691" t="s">
-        <v>2733</v>
+        <v>2737</v>
       </c>
       <c r="J691" t="s">
-        <v>2734</v>
+        <v>2738</v>
       </c>
       <c r="K691"/>
       <c r="L691"/>
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>2735</v>
+        <v>2739</v>
       </c>
       <c r="B692" t="s">
-        <v>15</v>
+        <v>2740</v>
       </c>
       <c r="C692" t="s">
-        <v>1220</v>
+        <v>577</v>
       </c>
       <c r="D692"/>
       <c r="E692"/>
@@ -30087,23 +30079,23 @@
         <v>15</v>
       </c>
       <c r="H692" t="s">
-        <v>15</v>
+        <v>600</v>
       </c>
       <c r="I692" t="s">
-        <v>2736</v>
+        <v>2741</v>
       </c>
       <c r="J692" t="s">
-        <v>15</v>
+        <v>2742</v>
       </c>
       <c r="K692"/>
       <c r="L692"/>
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>2737</v>
+        <v>2743</v>
       </c>
       <c r="B693" t="s">
-        <v>2738</v>
+        <v>2744</v>
       </c>
       <c r="C693" t="s">
         <v>577</v>
@@ -30120,20 +30112,20 @@
         <v>600</v>
       </c>
       <c r="I693" t="s">
-        <v>2739</v>
+        <v>2745</v>
       </c>
       <c r="J693" t="s">
-        <v>2740</v>
+        <v>2746</v>
       </c>
       <c r="K693"/>
       <c r="L693"/>
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>2741</v>
+        <v>2747</v>
       </c>
       <c r="B694" t="s">
-        <v>2742</v>
+        <v>2748</v>
       </c>
       <c r="C694" t="s">
         <v>577</v>
@@ -30150,20 +30142,20 @@
         <v>600</v>
       </c>
       <c r="I694" t="s">
-        <v>2743</v>
+        <v>2749</v>
       </c>
       <c r="J694" t="s">
-        <v>2744</v>
+        <v>2750</v>
       </c>
       <c r="K694"/>
       <c r="L694"/>
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>2745</v>
+        <v>2751</v>
       </c>
       <c r="B695" t="s">
-        <v>2746</v>
+        <v>2752</v>
       </c>
       <c r="C695" t="s">
         <v>577</v>
@@ -30180,73 +30172,13 @@
         <v>600</v>
       </c>
       <c r="I695" t="s">
-        <v>2747</v>
+        <v>2753</v>
       </c>
       <c r="J695" t="s">
-        <v>2748</v>
+        <v>2754</v>
       </c>
       <c r="K695"/>
       <c r="L695"/>
-    </row>
-    <row r="696">
-      <c r="A696" t="s">
-        <v>2749</v>
-      </c>
-      <c r="B696" t="s">
-        <v>2750</v>
-      </c>
-      <c r="C696" t="s">
-        <v>577</v>
-      </c>
-      <c r="D696"/>
-      <c r="E696"/>
-      <c r="F696" t="s">
-        <v>288</v>
-      </c>
-      <c r="G696" t="s">
-        <v>15</v>
-      </c>
-      <c r="H696" t="s">
-        <v>600</v>
-      </c>
-      <c r="I696" t="s">
-        <v>2751</v>
-      </c>
-      <c r="J696" t="s">
-        <v>2752</v>
-      </c>
-      <c r="K696"/>
-      <c r="L696"/>
-    </row>
-    <row r="697">
-      <c r="A697" t="s">
-        <v>2753</v>
-      </c>
-      <c r="B697" t="s">
-        <v>2754</v>
-      </c>
-      <c r="C697" t="s">
-        <v>577</v>
-      </c>
-      <c r="D697"/>
-      <c r="E697"/>
-      <c r="F697" t="s">
-        <v>288</v>
-      </c>
-      <c r="G697" t="s">
-        <v>15</v>
-      </c>
-      <c r="H697" t="s">
-        <v>600</v>
-      </c>
-      <c r="I697" t="s">
-        <v>2755</v>
-      </c>
-      <c r="J697" t="s">
-        <v>2756</v>
-      </c>
-      <c r="K697"/>
-      <c r="L697"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
